--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D8847\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\ArkeaAM\VSCode\AES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FD0F73-9CDE-4809-9CC7-DE1BC345A468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE6C5AE-01EB-495D-A30D-9D63BFDB9824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{F8D3256B-ADDC-459C-A4E0-3A351F0B7693}"/>
+    <workbookView xWindow="0" yWindow="4875" windowWidth="19140" windowHeight="23445" xr2:uid="{F8D3256B-ADDC-459C-A4E0-3A351F0B7693}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="temp" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$G$3017</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>SPCEPAB Index</t>
   </si>
@@ -95,9 +99,6 @@
   <si>
     <t>ESTRON Index</t>
   </si>
-  <si>
-    <t>#N/A N/A</t>
-  </si>
 </sst>
 </file>
 
@@ -150,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -164,10 +165,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -193,9 +191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -339,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B3477B-81D7-484E-8F17-C53B43BFB786}">
-  <dimension ref="A1:T3017"/>
+  <dimension ref="A1:J3017"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A973" workbookViewId="0">
+      <selection activeCell="G1002" sqref="G1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -501,7 +499,7 @@
     <col min="2" max="7" width="20" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -523,24 +521,8 @@
       <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42734</v>
       </c>
@@ -562,14 +544,8 @@
       <c r="G2" s="2">
         <v>-0.34799999999999998</v>
       </c>
-      <c r="I2" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42735</v>
       </c>
@@ -591,12 +567,8 @@
       <c r="G3" s="2">
         <v>-0.34499999999999997</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42736</v>
       </c>
@@ -618,12 +590,8 @@
       <c r="G4" s="2">
         <v>-0.35399999999999998</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42737</v>
       </c>
@@ -645,12 +613,8 @@
       <c r="G5" s="2">
         <v>-0.35599999999999998</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42738</v>
       </c>
@@ -672,14 +636,8 @@
       <c r="G6" s="2">
         <v>-0.35599999999999998</v>
       </c>
-      <c r="I6" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42739</v>
       </c>
@@ -701,12 +659,8 @@
       <c r="G7" s="2">
         <v>-0.35599999999999998</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42740</v>
       </c>
@@ -728,12 +682,8 @@
       <c r="G8" s="2">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42741</v>
       </c>
@@ -755,12 +705,8 @@
       <c r="G9" s="2">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42742</v>
       </c>
@@ -782,14 +728,8 @@
       <c r="G10" s="2">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="I10" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42743</v>
       </c>
@@ -811,12 +751,8 @@
       <c r="G11" s="2">
         <v>-0.35299999999999998</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42744</v>
       </c>
@@ -838,12 +774,8 @@
       <c r="G12" s="2">
         <v>-0.35199999999999998</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42745</v>
       </c>
@@ -865,12 +797,8 @@
       <c r="G13" s="2">
         <v>-0.35199999999999998</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42746</v>
       </c>
@@ -892,14 +820,8 @@
       <c r="G14" s="2">
         <v>-0.35199999999999998</v>
       </c>
-      <c r="I14" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42747</v>
       </c>
@@ -921,12 +843,8 @@
       <c r="G15" s="2">
         <v>-0.35299999999999998</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42748</v>
       </c>
@@ -947,10 +865,6 @@
       </c>
       <c r="G16" s="2">
         <v>-0.35199999999999998</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -975,10 +889,6 @@
       <c r="G17" s="2">
         <v>-0.35199999999999998</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1002,12 +912,6 @@
       <c r="G18" s="2">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="I18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1031,10 +935,6 @@
       <c r="G19" s="2">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1058,10 +958,6 @@
       <c r="G20" s="2">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1085,10 +981,6 @@
       <c r="G21" s="2">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -23673,8 +23565,8 @@
       <c r="F1003" s="2">
         <v>-0.26800000000000002</v>
       </c>
-      <c r="G1003" s="2" t="s">
-        <v>23</v>
+      <c r="G1003" s="2">
+        <v>-0.45100000000000001</v>
       </c>
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
@@ -23696,8 +23588,8 @@
       <c r="F1004" s="2">
         <v>-0.26800000000000002</v>
       </c>
-      <c r="G1004" s="2" t="s">
-        <v>23</v>
+      <c r="G1004" s="2">
+        <v>-0.45100000000000001</v>
       </c>
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
@@ -23719,8 +23611,8 @@
       <c r="F1005" s="2">
         <v>-0.26800000000000002</v>
       </c>
-      <c r="G1005" s="2" t="s">
-        <v>23</v>
+      <c r="G1005" s="2">
+        <v>-0.45100000000000001</v>
       </c>
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
@@ -23742,8 +23634,8 @@
       <c r="F1006" s="2">
         <v>-0.246</v>
       </c>
-      <c r="G1006" s="2" t="s">
-        <v>23</v>
+      <c r="G1006" s="2">
+        <v>-0.45100000000000001</v>
       </c>
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
@@ -70000,7 +69892,171 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G3017" xr:uid="{05B3477B-81D7-484E-8F17-C53B43BFB786}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501977A-532D-42EE-B655-E55A2D9A9066}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>